--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BBB757-4F0B-4895-BC51-8707E1B76B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D03E018-F6DD-423F-9D69-F9C716160D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{7C1164D5-F866-423C-8CFE-F482CA797950}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{B47C2D60-9B31-4E4D-9096-D8C3635581A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD0C8DE-A2EA-4B44-8CC7-367B7FE73640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5723C1B-5916-4138-A23E-EF673415014E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.21402845072858931</v>
+        <v>0.20132366145238353</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D03E018-F6DD-423F-9D69-F9C716160D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0347DF0D-D49F-4EB5-B335-1AD7B67D986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{B47C2D60-9B31-4E4D-9096-D8C3635581A7}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{B1E06EC4-2F50-4B45-B0C8-BF74FC60A17E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5723C1B-5916-4138-A23E-EF673415014E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01FE23E-0E4C-40C8-AC8C-2853BFB9291E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.20132366145238353</v>
+        <v>0.11580887531129853</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0347DF0D-D49F-4EB5-B335-1AD7B67D986A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EAAA0A-142B-4092-9ACD-798972568AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{B1E06EC4-2F50-4B45-B0C8-BF74FC60A17E}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{E33B38E0-FB4D-48F5-ABE5-2CC850B80C89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01FE23E-0E4C-40C8-AC8C-2853BFB9291E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D9B67D-FD98-4F08-AF39-5DC23AA6958B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.11580887531129853</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EAAA0A-142B-4092-9ACD-798972568AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B2D33-C29A-4512-8498-0622111C2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{E33B38E0-FB4D-48F5-ABE5-2CC850B80C89}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{EE839E94-92C0-4D27-A4C5-935B8E5637E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D9B67D-FD98-4F08-AF39-5DC23AA6958B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C393E248-CA7C-43BE-B65A-FFFD63E30B32}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
